--- a/data/trans_orig/Q4506_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q4506_R-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>64176</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49493</v>
+        <v>49942</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81408</v>
+        <v>85582</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09146424225736365</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07053723050123614</v>
+        <v>0.0711779197244656</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1160231208476804</v>
+        <v>0.1219721935162788</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>127</v>
@@ -763,19 +763,19 @@
         <v>132989</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>113729</v>
+        <v>112762</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>155052</v>
+        <v>151660</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1910970177775609</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1634208341282642</v>
+        <v>0.1620321807721872</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2228004811017843</v>
+        <v>0.2179261692626821</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>184</v>
@@ -784,19 +784,19 @@
         <v>197165</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>171966</v>
+        <v>172214</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>227981</v>
+        <v>223266</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1410764181103739</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1230457819308156</v>
+        <v>0.1232230425744383</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1631258836058094</v>
+        <v>0.1597520493358915</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>75820</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>61543</v>
+        <v>59911</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>95316</v>
+        <v>92665</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1080584688981581</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08771145449598375</v>
+        <v>0.08538591934896141</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1358447654328724</v>
+        <v>0.1320672228728353</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>89</v>
@@ -834,19 +834,19 @@
         <v>95767</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>78199</v>
+        <v>79525</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>117363</v>
+        <v>116561</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1376115509817929</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1123666930753563</v>
+        <v>0.1142720107510931</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1686430856079415</v>
+        <v>0.1674913053505035</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>162</v>
@@ -855,19 +855,19 @@
         <v>171587</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>147184</v>
+        <v>149723</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>197646</v>
+        <v>197999</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1227744365872697</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.105313557762132</v>
+        <v>0.1071301408933157</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1414205445708623</v>
+        <v>0.1416726204513847</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>92448</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>75219</v>
+        <v>74366</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114011</v>
+        <v>112297</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1317566237613477</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1072017065934144</v>
+        <v>0.1059873802627491</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1624884449871399</v>
+        <v>0.1600458987103293</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>126</v>
@@ -905,19 +905,19 @@
         <v>133285</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>113363</v>
+        <v>114015</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>156293</v>
+        <v>155107</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1915217419434337</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1628954673764559</v>
+        <v>0.163832714757489</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2245830938586749</v>
+        <v>0.2228785498113808</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>213</v>
@@ -926,19 +926,19 @@
         <v>225732</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>198777</v>
+        <v>200361</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>254203</v>
+        <v>256187</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1615166855246027</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.14222956839259</v>
+        <v>0.1433629575236849</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1818878695714461</v>
+        <v>0.1833077801239167</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>73682</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57373</v>
+        <v>58337</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88953</v>
+        <v>92230</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1050112467041481</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08176758720010088</v>
+        <v>0.08314204296398074</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1267759534273064</v>
+        <v>0.1314472353805664</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -976,19 +976,19 @@
         <v>45671</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34277</v>
+        <v>34679</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61005</v>
+        <v>61020</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0656261504908528</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04925432251326044</v>
+        <v>0.04983083292884616</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0876603560486228</v>
+        <v>0.08768160761941521</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>116</v>
@@ -997,19 +997,19 @@
         <v>119352</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>101544</v>
+        <v>99727</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>143420</v>
+        <v>142388</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08539942409738323</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07265737228263369</v>
+        <v>0.07135732010841726</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1026201718730242</v>
+        <v>0.1018822193879366</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>395529</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>369043</v>
+        <v>368661</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>422105</v>
+        <v>421260</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5637094183789825</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5259611977945107</v>
+        <v>0.5254164172245601</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6015860661581294</v>
+        <v>0.6003809864429565</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>263</v>
@@ -1047,19 +1047,19 @@
         <v>288213</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>262314</v>
+        <v>262508</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>314216</v>
+        <v>315825</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4141435388063597</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3769284416445727</v>
+        <v>0.3772078545913556</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4515088519459169</v>
+        <v>0.4538200778394571</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>646</v>
@@ -1068,19 +1068,19 @@
         <v>683742</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>646444</v>
+        <v>643384</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>724475</v>
+        <v>717912</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4892330356803704</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4625455458530193</v>
+        <v>0.4603558095895843</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5183785999198467</v>
+        <v>0.5136822984284587</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>78942</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>62517</v>
+        <v>62031</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96682</v>
+        <v>98007</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07770055921188931</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06153327974801469</v>
+        <v>0.06105536522748867</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09516100701652706</v>
+        <v>0.09646555691564485</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>174</v>
@@ -1193,19 +1193,19 @@
         <v>193336</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>166711</v>
+        <v>168736</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>219759</v>
+        <v>222632</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1882916866464227</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1623610387649379</v>
+        <v>0.1643327483369525</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2140247701446289</v>
+        <v>0.216822401086033</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>247</v>
@@ -1214,19 +1214,19 @@
         <v>272279</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>241425</v>
+        <v>241661</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>305103</v>
+        <v>304926</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1332887380406845</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1181850430010834</v>
+        <v>0.1183003700475681</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1493573037453391</v>
+        <v>0.149270550434554</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>81270</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>64189</v>
+        <v>64473</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>102015</v>
+        <v>101064</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0799915418156788</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06317920634191627</v>
+        <v>0.06345918518448845</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.100409866907339</v>
+        <v>0.09947381953601384</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>135</v>
@@ -1264,19 +1264,19 @@
         <v>148538</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>126761</v>
+        <v>125188</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>173644</v>
+        <v>173104</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1446626194098295</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1234530678352297</v>
+        <v>0.1219218382138087</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1691135402024884</v>
+        <v>0.1685867434072211</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>210</v>
@@ -1285,19 +1285,19 @@
         <v>229809</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>202428</v>
+        <v>201174</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>260138</v>
+        <v>262836</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1124981950142605</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09909456920371851</v>
+        <v>0.09848094564487049</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1273456279371003</v>
+        <v>0.1286663885862104</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>142711</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>118956</v>
+        <v>121131</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>164884</v>
+        <v>166801</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1404663364649157</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1170843281630784</v>
+        <v>0.1192260278104236</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1622898980195646</v>
+        <v>0.164176987709526</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>186</v>
@@ -1335,19 +1335,19 @@
         <v>201333</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>174701</v>
+        <v>176335</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>228624</v>
+        <v>229898</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1960792284038193</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1701422434939709</v>
+        <v>0.1717337142153423</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2226584176151068</v>
+        <v>0.2238994687719864</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>317</v>
@@ -1356,19 +1356,19 @@
         <v>344044</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>310655</v>
+        <v>310422</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>380197</v>
+        <v>379611</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1684199296147483</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1520750747054998</v>
+        <v>0.1519611046344698</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1861179911018584</v>
+        <v>0.1858308253883684</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>133814</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>115135</v>
+        <v>113136</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>157530</v>
+        <v>156027</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1317089824922685</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1133237430767852</v>
+        <v>0.1113559395622742</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1550523626270218</v>
+        <v>0.1535723819292548</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>86</v>
@@ -1406,19 +1406,19 @@
         <v>92785</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>73715</v>
+        <v>76050</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>112215</v>
+        <v>113663</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09036386841449891</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0717917651982036</v>
+        <v>0.07406574807406895</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1092869650797246</v>
+        <v>0.1106972520184154</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>212</v>
@@ -1427,19 +1427,19 @@
         <v>226599</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>199151</v>
+        <v>196190</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>258039</v>
+        <v>257500</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1109270296505949</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09749041163831496</v>
+        <v>0.09604085486521528</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1263180127956727</v>
+        <v>0.1260540488265543</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>579244</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>546129</v>
+        <v>548829</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>611480</v>
+        <v>612728</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5701325800152477</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5375380185882546</v>
+        <v>0.5401953537688117</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6018609830285471</v>
+        <v>0.6030889509090044</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>354</v>
@@ -1477,19 +1477,19 @@
         <v>390800</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>359513</v>
+        <v>356498</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>424679</v>
+        <v>422103</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3806025971254297</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3501322083472473</v>
+        <v>0.347195639929179</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4135974794234852</v>
+        <v>0.4110888388823424</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>883</v>
@@ -1498,19 +1498,19 @@
         <v>970045</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>923576</v>
+        <v>922318</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1017095</v>
+        <v>1016298</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4748661076797118</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4521184280889193</v>
+        <v>0.4515024540921534</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4978987432822597</v>
+        <v>0.4975083738987788</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>46270</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33734</v>
+        <v>33172</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62302</v>
+        <v>63941</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06114928940655037</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04458246798160668</v>
+        <v>0.04383980734992252</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08233724635784191</v>
+        <v>0.0845031652777852</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>131</v>
@@ -1623,19 +1623,19 @@
         <v>150028</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>127770</v>
+        <v>128346</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>170858</v>
+        <v>173511</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1930424427477083</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1644034272008478</v>
+        <v>0.1651440994756372</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2198446333745317</v>
+        <v>0.2232593680654048</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>171</v>
@@ -1644,19 +1644,19 @@
         <v>196297</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>169559</v>
+        <v>170834</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>225174</v>
+        <v>227802</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1279774111287133</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1105452643839788</v>
+        <v>0.1113762583782894</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1468038747364135</v>
+        <v>0.148517011469203</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>67725</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52426</v>
+        <v>53104</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>88126</v>
+        <v>86777</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08950343691419883</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06928549026520849</v>
+        <v>0.07018093478769229</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1164662031696221</v>
+        <v>0.1146832950533897</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>85</v>
@@ -1694,19 +1694,19 @@
         <v>91219</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>73904</v>
+        <v>73538</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>110602</v>
+        <v>110138</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1173724595950061</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09509310952482251</v>
+        <v>0.09462215491272077</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1423127934240418</v>
+        <v>0.1417154179621041</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>143</v>
@@ -1715,19 +1715,19 @@
         <v>158943</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>134066</v>
+        <v>136600</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>185650</v>
+        <v>187258</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.103624218719857</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08740510605024782</v>
+        <v>0.08905709111024609</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.121035601520708</v>
+        <v>0.1220844134238299</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>112978</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>92906</v>
+        <v>94825</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>133940</v>
+        <v>134888</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1493095079674206</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1227830801700249</v>
+        <v>0.1253188541027475</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1770117769535651</v>
+        <v>0.1782658644636066</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>128</v>
@@ -1765,19 +1765,19 @@
         <v>137316</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>117197</v>
+        <v>117047</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>159456</v>
+        <v>159893</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1766865799224848</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1507989675754869</v>
+        <v>0.1506062151287273</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2051735153024745</v>
+        <v>0.2057361107343455</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>229</v>
@@ -1786,19 +1786,19 @@
         <v>250294</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>222113</v>
+        <v>221974</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>283559</v>
+        <v>282161</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1631810263189234</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1448080019359809</v>
+        <v>0.1447172767229471</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1848681069392603</v>
+        <v>0.1839568601725893</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>90564</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>71275</v>
+        <v>73310</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>109720</v>
+        <v>110937</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1196879009508623</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09419585318023335</v>
+        <v>0.09688553280553877</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.145004306080682</v>
+        <v>0.1466126099445258</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -1836,19 +1836,19 @@
         <v>68969</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52346</v>
+        <v>52750</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>85523</v>
+        <v>85701</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08874334281358169</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06735461437046583</v>
+        <v>0.0678736262613933</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1100429378630036</v>
+        <v>0.1102722106151778</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>147</v>
@@ -1857,19 +1857,19 @@
         <v>159533</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>136536</v>
+        <v>135202</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>186515</v>
+        <v>185803</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1040087952092042</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08901573589354853</v>
+        <v>0.08814576027149582</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1215995680589638</v>
+        <v>0.1211357263441504</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>439133</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>409292</v>
+        <v>407231</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>467295</v>
+        <v>465124</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5803498647609678</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5409115038997914</v>
+        <v>0.53818878376987</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6175680883983194</v>
+        <v>0.6146981107798712</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>298</v>
@@ -1907,19 +1907,19 @@
         <v>329642</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>300394</v>
+        <v>300262</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>357780</v>
+        <v>358613</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4241551749212191</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3865202946629177</v>
+        <v>0.3863512297888661</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4603606197203178</v>
+        <v>0.4614322804634099</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>703</v>
@@ -1928,19 +1928,19 @@
         <v>768776</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>727333</v>
+        <v>725689</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>810164</v>
+        <v>809222</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.501208548623302</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4741895973297651</v>
+        <v>0.4731179983444236</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5281919583211242</v>
+        <v>0.527577535210995</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>78059</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61601</v>
+        <v>61297</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>95550</v>
+        <v>97474</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08252551028053566</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06512652402140932</v>
+        <v>0.06480452520121885</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1010181325104442</v>
+        <v>0.1030515078399623</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>221</v>
@@ -2053,19 +2053,19 @@
         <v>231321</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>205305</v>
+        <v>206690</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>258287</v>
+        <v>258505</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2203205558962149</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1955412605352615</v>
+        <v>0.1968610602418375</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2460040078808122</v>
+        <v>0.2462116895341914</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>297</v>
@@ -2074,19 +2074,19 @@
         <v>309380</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>275751</v>
+        <v>274622</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>343222</v>
+        <v>342411</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1550152215665214</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1381656583964696</v>
+        <v>0.1375998400468435</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1719720447032633</v>
+        <v>0.1715656036912401</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>93396</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>75816</v>
+        <v>75305</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>114657</v>
+        <v>112362</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09874098121042989</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08015499810620862</v>
+        <v>0.07961411099193556</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1212180428080798</v>
+        <v>0.1187922183762105</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>176</v>
@@ -2124,19 +2124,19 @@
         <v>184427</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>159479</v>
+        <v>159276</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>211422</v>
+        <v>210697</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1756564694899589</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1518945858824488</v>
+        <v>0.1517019731251181</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2013681374485754</v>
+        <v>0.2006774263730079</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>265</v>
@@ -2145,19 +2145,19 @@
         <v>277823</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>245222</v>
+        <v>248832</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>307494</v>
+        <v>308936</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1392038404800904</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1228688000556652</v>
+        <v>0.1246776439020609</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1540701650051702</v>
+        <v>0.1547931206082343</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>168345</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>145817</v>
+        <v>145403</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>194101</v>
+        <v>193137</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1779790439691428</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1541616680675651</v>
+        <v>0.1537238933506584</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2052083550608422</v>
+        <v>0.2041891200796612</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>176</v>
@@ -2195,19 +2195,19 @@
         <v>183758</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>160957</v>
+        <v>159026</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>211771</v>
+        <v>209875</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1750192743884947</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1533029324622459</v>
+        <v>0.1514632449015015</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2016998823321727</v>
+        <v>0.1998945961335097</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>342</v>
@@ -2216,19 +2216,19 @@
         <v>352103</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>319893</v>
+        <v>318725</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>387972</v>
+        <v>386785</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1764220007429833</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.160282733852882</v>
+        <v>0.1596977222491381</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1943940915628262</v>
+        <v>0.193799261593511</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>142398</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>121119</v>
+        <v>122346</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>164235</v>
+        <v>166310</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1505471294052865</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1280503766935296</v>
+        <v>0.1293467910480831</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1736336312417521</v>
+        <v>0.1758267489854082</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>95</v>
@@ -2266,19 +2266,19 @@
         <v>100109</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>82383</v>
+        <v>81539</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>119859</v>
+        <v>123467</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09534802454568876</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0784650642592755</v>
+        <v>0.07766098579380384</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1141594149993785</v>
+        <v>0.1175950634871226</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>236</v>
@@ -2287,19 +2287,19 @@
         <v>242507</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>213768</v>
+        <v>215211</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>273097</v>
+        <v>274999</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1215085877317548</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1071088617965796</v>
+        <v>0.1078320512269933</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1368355588028165</v>
+        <v>0.1377886064462052</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>463673</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>435461</v>
+        <v>432423</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>494501</v>
+        <v>495532</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4902073351346052</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4603803323538199</v>
+        <v>0.4571682030363121</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.522799553893594</v>
+        <v>0.523889564986151</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>334</v>
@@ -2337,19 +2337,19 @@
         <v>350315</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>322185</v>
+        <v>317641</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>382714</v>
+        <v>382848</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3336556756796428</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3068631200613408</v>
+        <v>0.3025353974015814</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3645140532266422</v>
+        <v>0.3646415469083322</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>770</v>
@@ -2358,19 +2358,19 @@
         <v>813989</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>768348</v>
+        <v>770459</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>858192</v>
+        <v>861559</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.40785034947865</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3849821997556743</v>
+        <v>0.3860397986622525</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4299987150619945</v>
+        <v>0.4316856996327042</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>267447</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>236416</v>
+        <v>236254</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>301404</v>
+        <v>300819</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07819681385531869</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06912393288638127</v>
+        <v>0.06907656034912926</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08812528561497145</v>
+        <v>0.08795419998977255</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>653</v>
@@ -2483,19 +2483,19 @@
         <v>707674</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>659162</v>
+        <v>657980</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>759599</v>
+        <v>756563</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1993549283200847</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1856889096408006</v>
+        <v>0.1853557427448514</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2139822808964885</v>
+        <v>0.213127121408257</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>899</v>
@@ -2504,19 +2504,19 @@
         <v>975122</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>915587</v>
+        <v>916541</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1039672</v>
+        <v>1036609</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1399026425428703</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.131361163963984</v>
+        <v>0.1314979075919392</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1491638072431689</v>
+        <v>0.1487243792031006</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>318211</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>286452</v>
+        <v>284696</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>357704</v>
+        <v>356992</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09303916823466958</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08375352448955198</v>
+        <v>0.08324011873540399</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1045863026678633</v>
+        <v>0.1043781449104083</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>485</v>
@@ -2554,19 +2554,19 @@
         <v>519952</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>478025</v>
+        <v>474438</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>566193</v>
+        <v>561933</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1464726126043309</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1346617208013829</v>
+        <v>0.1336513281763831</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.159499161201874</v>
+        <v>0.1582990717311003</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>780</v>
@@ -2575,19 +2575,19 @@
         <v>838162</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>780112</v>
+        <v>784498</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>891924</v>
+        <v>899760</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1202528218890353</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1119242620225471</v>
+        <v>0.1125535305106811</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1279661133016589</v>
+        <v>0.1290903325710878</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>516482</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>474114</v>
+        <v>477155</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>559746</v>
+        <v>560829</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1510103443258108</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.138622457754666</v>
+        <v>0.1395116511618985</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1636597106959627</v>
+        <v>0.1639764941459559</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>616</v>
@@ -2625,19 +2625,19 @@
         <v>655692</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>612150</v>
+        <v>610140</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>708305</v>
+        <v>701964</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1847111616357152</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1724453314300795</v>
+        <v>0.1718791227443888</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.199532508748657</v>
+        <v>0.1977462214426902</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1101</v>
@@ -2646,19 +2646,19 @@
         <v>1172174</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1106589</v>
+        <v>1112652</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1240436</v>
+        <v>1236766</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.168174170857299</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1587645482943399</v>
+        <v>0.1596343515963445</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1779677904933343</v>
+        <v>0.1774413383934057</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>440458</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>400365</v>
+        <v>401474</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>482694</v>
+        <v>481361</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1287822103015457</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.117059790692689</v>
+        <v>0.117384035757314</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1411313189839741</v>
+        <v>0.1407414539820862</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>288</v>
@@ -2696,19 +2696,19 @@
         <v>307534</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>272959</v>
+        <v>275918</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>342371</v>
+        <v>344224</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08663353635588064</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0768936837838672</v>
+        <v>0.07772721545934781</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09644727267218661</v>
+        <v>0.09696940368688381</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>711</v>
@@ -2717,19 +2717,19 @@
         <v>747992</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>696428</v>
+        <v>696212</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>805654</v>
+        <v>806794</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1073158903163909</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09991796175134768</v>
+        <v>0.09988688316194326</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1155887989082118</v>
+        <v>0.1157523995327458</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>1877581</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1816858</v>
+        <v>1819155</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1940067</v>
+        <v>1939978</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5489714632826552</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5312171279978904</v>
+        <v>0.5318887423598294</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5672414697304912</v>
+        <v>0.5672154318981091</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1249</v>
@@ -2767,19 +2767,19 @@
         <v>1358970</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1302808</v>
+        <v>1301027</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1422432</v>
+        <v>1426594</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3828277610839885</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3670066395065679</v>
+        <v>0.3665050374866791</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4007053505447729</v>
+        <v>0.4018776068818741</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3002</v>
@@ -2788,19 +2788,19 @@
         <v>3236551</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3149400</v>
+        <v>3142449</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3315066</v>
+        <v>3322429</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4643544743944045</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4518507193947465</v>
+        <v>0.4508535214231973</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4756191949796258</v>
+        <v>0.4766754983365437</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>53847</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40930</v>
+        <v>42074</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69599</v>
+        <v>69571</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07979679343697743</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06065469591254574</v>
+        <v>0.06235039868054727</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1031397913370905</v>
+        <v>0.103098954799537</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>102</v>
@@ -3153,19 +3153,19 @@
         <v>101417</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84186</v>
+        <v>83882</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>120818</v>
+        <v>120673</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1512072768199605</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1255170273785975</v>
+        <v>0.1250642547190073</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1801341324693189</v>
+        <v>0.1799167544360311</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>154</v>
@@ -3174,19 +3174,19 @@
         <v>155264</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>132395</v>
+        <v>132823</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>177741</v>
+        <v>180111</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1153935787567693</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09839723879155564</v>
+        <v>0.09871587150561019</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1320993505736208</v>
+        <v>0.133860619549646</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>93850</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77176</v>
+        <v>76874</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>112878</v>
+        <v>113368</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1390778744053592</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1143691078563193</v>
+        <v>0.1139204600584666</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1672765311749569</v>
+        <v>0.1680024466461325</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>154</v>
@@ -3224,19 +3224,19 @@
         <v>155307</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>134803</v>
+        <v>133233</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>179188</v>
+        <v>177063</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2315546041691865</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.20098429718545</v>
+        <v>0.1986436896051743</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2671605092095833</v>
+        <v>0.2639924798223637</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>243</v>
@@ -3245,19 +3245,19 @@
         <v>249156</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>223031</v>
+        <v>222350</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>281578</v>
+        <v>278679</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1851757880523604</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1657594034896079</v>
+        <v>0.1652529476576502</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2092721355919265</v>
+        <v>0.2071173976350422</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>84736</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>68157</v>
+        <v>68732</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>103947</v>
+        <v>103728</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1255725527841529</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1010029802144247</v>
+        <v>0.1018550274051353</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.154041130524191</v>
+        <v>0.1537173064539429</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>111</v>
@@ -3295,19 +3295,19 @@
         <v>107192</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>90025</v>
+        <v>88792</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>130080</v>
+        <v>126618</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1598178232911388</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1342222449664311</v>
+        <v>0.1323843200446575</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1939429039887288</v>
+        <v>0.1887805891966984</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>191</v>
@@ -3316,19 +3316,19 @@
         <v>191928</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>168894</v>
+        <v>166513</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>218597</v>
+        <v>217947</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1426431772177899</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.125523567550314</v>
+        <v>0.1237540942001202</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1624633434598347</v>
+        <v>0.1619803059858674</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>58771</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45649</v>
+        <v>45320</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75078</v>
+        <v>73504</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08709397073674162</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06764837427044144</v>
+        <v>0.06716037782234295</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1112596826239879</v>
+        <v>0.1089263726743409</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -3366,19 +3366,19 @@
         <v>58334</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45946</v>
+        <v>45363</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72353</v>
+        <v>73372</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08697294673643173</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06850319574734902</v>
+        <v>0.06763329940614797</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.107875077811827</v>
+        <v>0.1093934885231994</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -3387,19 +3387,19 @@
         <v>117105</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98630</v>
+        <v>97187</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>138303</v>
+        <v>140593</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08703364254466835</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07330282713980205</v>
+        <v>0.07223053560542514</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1027881406283785</v>
+        <v>0.1044900470476609</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>383596</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>357052</v>
+        <v>357690</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>406953</v>
+        <v>407262</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5684588086367688</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5291233673446615</v>
+        <v>0.5300678060001968</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6030722255512154</v>
+        <v>0.6035296774016493</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>235</v>
@@ -3437,19 +3437,19 @@
         <v>248464</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>223196</v>
+        <v>222315</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>274500</v>
+        <v>273068</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3704473489832825</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3327740548357964</v>
+        <v>0.3314601712015579</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.40926536285325</v>
+        <v>0.4071315716482738</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>609</v>
@@ -3458,19 +3458,19 @@
         <v>632060</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>595701</v>
+        <v>596177</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>664683</v>
+        <v>668297</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4697538134284121</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.442731366150813</v>
+        <v>0.4430852015333193</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.493999389415283</v>
+        <v>0.4966856036269392</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>95969</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77548</v>
+        <v>77251</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>120241</v>
+        <v>116300</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09482116782782792</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07662033704132172</v>
+        <v>0.07632667142184417</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1188026465154271</v>
+        <v>0.1149090024225689</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>173</v>
@@ -3583,19 +3583,19 @@
         <v>183885</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>161007</v>
+        <v>159692</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>211744</v>
+        <v>214094</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1770738549721412</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1550428688510859</v>
+        <v>0.1537774107755798</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2039007816751934</v>
+        <v>0.2061634292804616</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>255</v>
@@ -3604,19 +3604,19 @@
         <v>279854</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>249070</v>
+        <v>250573</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>310478</v>
+        <v>312705</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1364762259729633</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.121463931874398</v>
+        <v>0.1221967805501392</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.151410709929461</v>
+        <v>0.1524964872661639</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>193804</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>166488</v>
+        <v>168166</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>221291</v>
+        <v>218993</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1914860354381209</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1644970378592351</v>
+        <v>0.1661549067148907</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2186447067842735</v>
+        <v>0.2163735194368377</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>238</v>
@@ -3654,19 +3654,19 @@
         <v>251990</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>223265</v>
+        <v>221103</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>280806</v>
+        <v>277559</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2426563582469013</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2149949397487912</v>
+        <v>0.212913165145465</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2704045584798412</v>
+        <v>0.2672785373044804</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>415</v>
@@ -3675,19 +3675,19 @@
         <v>445794</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>404409</v>
+        <v>406243</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>485445</v>
+        <v>484655</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2174001161315011</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1972180537579269</v>
+        <v>0.1981124262790588</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.236736634604658</v>
+        <v>0.236351478290785</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>151807</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>129556</v>
+        <v>128816</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>177248</v>
+        <v>175998</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1499910841803407</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1280066893310427</v>
+        <v>0.1272756010934041</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1751278949470437</v>
+        <v>0.17389355382727</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>228</v>
@@ -3725,19 +3725,19 @@
         <v>238971</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>212813</v>
+        <v>211517</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>266824</v>
+        <v>269200</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2301197359053818</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2049303841568472</v>
+        <v>0.203682138055728</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2569410748218073</v>
+        <v>0.259228638203404</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>370</v>
@@ -3746,19 +3746,19 @@
         <v>390778</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>356410</v>
+        <v>357688</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>427699</v>
+        <v>428666</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1905704714633573</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1738103883122116</v>
+        <v>0.1744335145898424</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2085759243851192</v>
+        <v>0.2090470993133627</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>128959</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>107747</v>
+        <v>107781</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>149446</v>
+        <v>152642</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.127416871729365</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1064581915032946</v>
+        <v>0.1064921241699621</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1476587174833925</v>
+        <v>0.1508164050337781</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -3796,19 +3796,19 @@
         <v>85791</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>68196</v>
+        <v>68434</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104940</v>
+        <v>104952</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08261358846764563</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06566986246881779</v>
+        <v>0.06589892945274867</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1010529988768004</v>
+        <v>0.1010647169292303</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>197</v>
@@ -3817,19 +3817,19 @@
         <v>214750</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>189168</v>
+        <v>189050</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>245117</v>
+        <v>244280</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1047272376984977</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09225129832622753</v>
+        <v>0.09219412167854864</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1195358602479526</v>
+        <v>0.1191278066747397</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>441566</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>408332</v>
+        <v>408927</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>476937</v>
+        <v>473480</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4362848408243454</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4034484445697727</v>
+        <v>0.404036329404162</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4712330669741429</v>
+        <v>0.4678175642409638</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>255</v>
@@ -3867,19 +3867,19 @@
         <v>277827</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>246838</v>
+        <v>249944</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>308242</v>
+        <v>307811</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2675364624079301</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2376951259728373</v>
+        <v>0.240686391579686</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2968249340081659</v>
+        <v>0.296409286825471</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>678</v>
@@ -3888,19 +3888,19 @@
         <v>719393</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>671003</v>
+        <v>674931</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>760689</v>
+        <v>764062</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3508259487336805</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3272276525535076</v>
+        <v>0.3291433940940756</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3709646989560463</v>
+        <v>0.3726099529665268</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>63800</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49644</v>
+        <v>48424</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>81628</v>
+        <v>81810</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08466751123004081</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06588116809373999</v>
+        <v>0.06426195811599393</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1083263648899111</v>
+        <v>0.1085670225699957</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>153</v>
@@ -4013,19 +4013,19 @@
         <v>163609</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>141238</v>
+        <v>142619</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>186923</v>
+        <v>188860</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2097037538572785</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1810299128316832</v>
+        <v>0.182800629148455</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2395869109253327</v>
+        <v>0.2420687076124603</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>212</v>
@@ -4034,19 +4034,19 @@
         <v>227409</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>200559</v>
+        <v>200482</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>254389</v>
+        <v>256690</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1482719234042153</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1307655986643971</v>
+        <v>0.1307150493703011</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1658629137106041</v>
+        <v>0.1673631164949961</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>202487</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>179557</v>
+        <v>178121</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>226766</v>
+        <v>227724</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2687142878809222</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2382843983017864</v>
+        <v>0.2363790896987233</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3009339999616791</v>
+        <v>0.3022050103310523</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>254</v>
@@ -4084,19 +4084,19 @@
         <v>270693</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>243017</v>
+        <v>245411</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>296705</v>
+        <v>298731</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3469575623051745</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3114841823088096</v>
+        <v>0.3145526172302757</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3802979556756629</v>
+        <v>0.3828952208114298</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>441</v>
@@ -4105,19 +4105,19 @@
         <v>473180</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>435858</v>
+        <v>441164</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>511825</v>
+        <v>510696</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3085156876332616</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2841814968413839</v>
+        <v>0.2876409869261835</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3337125370202373</v>
+        <v>0.3329762212710073</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>145507</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>123916</v>
+        <v>123502</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>168967</v>
+        <v>168393</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1930972593894922</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1644445186588259</v>
+        <v>0.1638955307339059</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2242300937865516</v>
+        <v>0.2234684566605597</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>130</v>
@@ -4155,19 +4155,19 @@
         <v>138297</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>116787</v>
+        <v>116300</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>161153</v>
+        <v>160201</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1772607066103678</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1496905156253294</v>
+        <v>0.1490662798250722</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2065555184351534</v>
+        <v>0.2053360184886182</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>263</v>
@@ -4176,19 +4176,19 @@
         <v>283804</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>255619</v>
+        <v>254456</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>316159</v>
+        <v>319342</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.185041398071071</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1666648314274956</v>
+        <v>0.1659065168976908</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2061371323296144</v>
+        <v>0.2082124513779866</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>99604</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>80825</v>
+        <v>81364</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>121944</v>
+        <v>119543</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1321815010606867</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1072603420899956</v>
+        <v>0.1079758657318884</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1618275094664927</v>
+        <v>0.158642228192493</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>61</v>
@@ -4226,19 +4226,19 @@
         <v>61838</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>49648</v>
+        <v>47400</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77691</v>
+        <v>78343</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07925986851159356</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0636358230567912</v>
+        <v>0.06075497056866126</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09957948145800061</v>
+        <v>0.1004151829493013</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>151</v>
@@ -4247,19 +4247,19 @@
         <v>161442</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>137419</v>
+        <v>137871</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>186799</v>
+        <v>186271</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1052609118070756</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08959765881604231</v>
+        <v>0.08989274671366132</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1217935619711911</v>
+        <v>0.1214494878604023</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>242142</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>215751</v>
+        <v>215053</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269241</v>
+        <v>268196</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.321339440438858</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2863165626689576</v>
+        <v>0.285389435680077</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3573006085247909</v>
+        <v>0.3559141323335289</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>134</v>
@@ -4297,19 +4297,19 @@
         <v>145754</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>126751</v>
+        <v>122307</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>168970</v>
+        <v>166976</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1868181087155856</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1624611898691727</v>
+        <v>0.1567660600673966</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2165760692325744</v>
+        <v>0.2140202268661912</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>355</v>
@@ -4318,19 +4318,19 @@
         <v>387896</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>351132</v>
+        <v>353349</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>421424</v>
+        <v>422109</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2529100790843765</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2289399461501612</v>
+        <v>0.2303851665209159</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.274770314242563</v>
+        <v>0.2752170997126182</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>120780</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>101473</v>
+        <v>99819</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>140978</v>
+        <v>140915</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1290743607036843</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1084419849348674</v>
+        <v>0.1066736750442643</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1506596274079654</v>
+        <v>0.1505927679995663</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>260</v>
@@ -4443,19 +4443,19 @@
         <v>289191</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>258687</v>
+        <v>261190</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>320177</v>
+        <v>320524</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2773567246217257</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2481014907559856</v>
+        <v>0.2505019352290658</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3070752254838266</v>
+        <v>0.3074075861020029</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>378</v>
@@ -4464,19 +4464,19 @@
         <v>409970</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>374472</v>
+        <v>369299</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>447520</v>
+        <v>446735</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2072227144918793</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1892796939255303</v>
+        <v>0.1866649865990837</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2262025763360979</v>
+        <v>0.2258056362568753</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>157279</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>136851</v>
+        <v>135821</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>180262</v>
+        <v>181946</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1680801851956909</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.146249142429476</v>
+        <v>0.1451483573696273</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1926420512280925</v>
+        <v>0.1944409799933234</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>227</v>
@@ -4514,19 +4514,19 @@
         <v>241927</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>215084</v>
+        <v>216547</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>269053</v>
+        <v>271762</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.232027323705863</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2062823502538545</v>
+        <v>0.2076859578185872</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2580431275780213</v>
+        <v>0.2606415416183056</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>387</v>
@@ -4535,19 +4535,19 @@
         <v>399206</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>364333</v>
+        <v>365440</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>432382</v>
+        <v>437333</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2017818572758432</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1841548717410075</v>
+        <v>0.18471440702079</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2185510446790982</v>
+        <v>0.2210533789305527</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>152680</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>132450</v>
+        <v>132462</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>178174</v>
+        <v>178472</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1631648475552541</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1415459695215595</v>
+        <v>0.1415586818246102</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1904101834004992</v>
+        <v>0.1907282466104353</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>134</v>
@@ -4585,19 +4585,19 @@
         <v>140711</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>121287</v>
+        <v>119287</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>165777</v>
+        <v>161808</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1349533128708033</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1163238705066366</v>
+        <v>0.1144060465412005</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1589932751458556</v>
+        <v>0.1551863205376629</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>287</v>
@@ -4606,19 +4606,19 @@
         <v>293391</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>266367</v>
+        <v>261427</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>328935</v>
+        <v>326569</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1482966937494045</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1346373276062679</v>
+        <v>0.1321400983306639</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1662628956114252</v>
+        <v>0.1650668029267968</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>112821</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>93894</v>
+        <v>95624</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>133590</v>
+        <v>132950</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.120569420115992</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1003422668873522</v>
+        <v>0.1021906350940593</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.142764557022555</v>
+        <v>0.142080833053851</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -4656,19 +4656,19 @@
         <v>80387</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>64839</v>
+        <v>64311</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>101314</v>
+        <v>98359</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07709752699159871</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06218577656051722</v>
+        <v>0.06167935399625519</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09716788198734441</v>
+        <v>0.09433416550688314</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>189</v>
@@ -4677,19 +4677,19 @@
         <v>193208</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>168102</v>
+        <v>166659</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>218707</v>
+        <v>222226</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09765869227242041</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08496834446939566</v>
+        <v>0.08423900931913078</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.110547217463734</v>
+        <v>0.1123257730975929</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>392178</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>360014</v>
+        <v>360619</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>422513</v>
+        <v>421312</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4191111864293787</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3847377869975254</v>
+        <v>0.3853843709699036</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4515292537447124</v>
+        <v>0.4502458797685172</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>262</v>
@@ -4727,19 +4727,19 @@
         <v>290451</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>261831</v>
+        <v>261818</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>321250</v>
+        <v>317606</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2785651118100093</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2511168858924597</v>
+        <v>0.2511043633151483</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3081045007254526</v>
+        <v>0.3046097167845156</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>647</v>
@@ -4748,19 +4748,19 @@
         <v>682629</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>641352</v>
+        <v>637830</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>723683</v>
+        <v>725293</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3450400422104526</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3241764940589621</v>
+        <v>0.3223960131719433</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3657909145234883</v>
+        <v>0.3666049919095733</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>334396</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>296585</v>
+        <v>299746</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>367149</v>
+        <v>370432</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09904557853497201</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08784633953151211</v>
+        <v>0.08878238366597209</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1087467964540763</v>
+        <v>0.1097193090434351</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>688</v>
@@ -4873,19 +4873,19 @@
         <v>738101</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>691630</v>
+        <v>692002</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>786753</v>
+        <v>795158</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2089733380029731</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1958161168198023</v>
+        <v>0.1959216481455384</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2227476698027166</v>
+        <v>0.2251273723413351</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>999</v>
@@ -4894,19 +4894,19 @@
         <v>1072497</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1013905</v>
+        <v>1012392</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1132812</v>
+        <v>1134475</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1552494708132306</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.146767958219624</v>
+        <v>0.1465489834962923</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1639803449584548</v>
+        <v>0.1642210587014718</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>647420</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>606804</v>
+        <v>602399</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>695809</v>
+        <v>697119</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1917608616961822</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1797308866234393</v>
+        <v>0.1784261226534045</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.206093459372478</v>
+        <v>0.2064813390471006</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>873</v>
@@ -4944,19 +4944,19 @@
         <v>919917</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>872067</v>
+        <v>867616</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>977245</v>
+        <v>970142</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2604495425868162</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2469021336246348</v>
+        <v>0.2456417512900132</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.276680225318726</v>
+        <v>0.2746693784157532</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1486</v>
@@ -4965,19 +4965,19 @@
         <v>1567337</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1502795</v>
+        <v>1498204</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1634035</v>
+        <v>1642475</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2268800275938248</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2175372926212024</v>
+        <v>0.2168727213126919</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2365349284784866</v>
+        <v>0.2377566925505133</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>534729</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>492504</v>
+        <v>489184</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>577085</v>
+        <v>576688</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1583827606241286</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1458760262296685</v>
+        <v>0.1448925553448118</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1709281458722485</v>
+        <v>0.1708106195837951</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>603</v>
@@ -5015,19 +5015,19 @@
         <v>625172</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>581583</v>
+        <v>579822</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>673834</v>
+        <v>668047</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1770004007688426</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1646593216475297</v>
+        <v>0.1641609291071415</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1907778288735451</v>
+        <v>0.1891392147518803</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1111</v>
@@ -5036,19 +5036,19 @@
         <v>1159901</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1097753</v>
+        <v>1099878</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1221281</v>
+        <v>1226643</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1679015923208073</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.158905425093979</v>
+        <v>0.1592129320667764</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1767867050572521</v>
+        <v>0.1775628513321527</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>400156</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>360129</v>
+        <v>364544</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>436072</v>
+        <v>436617</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1185231075283297</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1066675035253899</v>
+        <v>0.1079751438176259</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1291613148837542</v>
+        <v>0.1293227098887386</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>278</v>
@@ -5086,19 +5086,19 @@
         <v>286350</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>254647</v>
+        <v>256768</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>318511</v>
+        <v>320321</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08107224597788057</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0720964170045667</v>
+        <v>0.07269681688929226</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09017781591779479</v>
+        <v>0.09069017189224414</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>656</v>
@@ -5107,19 +5107,19 @@
         <v>686506</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>637937</v>
+        <v>637348</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>741101</v>
+        <v>740250</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09937522169406843</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09234470322594805</v>
+        <v>0.09225939169911057</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1072781181984165</v>
+        <v>0.1071549675830681</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>1459482</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1404317</v>
+        <v>1399535</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1523796</v>
+        <v>1518451</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4322876916163875</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4159482110902418</v>
+        <v>0.4145315882946306</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4513368555338407</v>
+        <v>0.4497537789818888</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>886</v>
@@ -5157,19 +5157,19 @@
         <v>962496</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>907016</v>
+        <v>912511</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1018035</v>
+        <v>1020151</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2725044726634875</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2567968603870852</v>
+        <v>0.2583526256369406</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2882288134149438</v>
+        <v>0.2888280441125636</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2289</v>
@@ -5178,19 +5178,19 @@
         <v>2421978</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2343036</v>
+        <v>2343768</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2502607</v>
+        <v>2504560</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3505936875780689</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3391665049728138</v>
+        <v>0.3392724145956196</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3622652734050848</v>
+        <v>0.3625478950682146</v>
       </c>
     </row>
     <row r="33">
